--- a/diversos/b3/base.xlsx
+++ b/diversos/b3/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiarly/Documents/MEUSPROJETOS/python/diversos/b3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB85885-E157-0548-8DDD-276992BA4D35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D05146-C1FF-EF40-9777-9C2CF5338BE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
